--- a/data/trans_camb/P19C03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,21</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,96; 3,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,4; 0,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,59; -5,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,19; 2,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,64; -1,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,88; -10,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,57; 1,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,32; -2,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,0; -10,12</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,83%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,58; 12,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,54; -0,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,79; -14,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,11; 8,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,07; -5,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,71; -31,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,58; 5,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,48; -8,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,41; -31,14</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,02; -0,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,84; -0,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,75; -10,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,12; 0,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,75; -3,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,31; -14,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,88; -1,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,71; -3,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,55; -15,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,94%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,12; -0,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,4; -0,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,37; -27,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,15; 2,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,5; -9,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,02; -38,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,54; -4,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,21; -9,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,54; -39,0</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,45; 0,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,95; 0,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,18; -10,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,94; 4,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,6; -1,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; -10,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; 1,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; -1,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,12; -12,25</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,17%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,87; 0,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,05; 1,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,99; -28,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,71; 12,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,05; -3,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,52; -32,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,76; 2,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,38; -4,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,52; -34,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,78; 4,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; -1,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,29; -9,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; 1,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,38; -0,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,55; -8,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 1,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; -2,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,94; -10,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,41%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,42; 13,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,66; -4,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,67; -28,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,09; 3,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,84; -2,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,58; -25,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,14; 3,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,66; -8,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,08; -32,11</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,8</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,03; 17,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,03; 6,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,94; 4,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 8,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 0,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; -3,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 10,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,4; 1,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; -2,23</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,16%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,51%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,03%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,77; 97,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,48; 38,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,43; 28,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,03; 30,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,13; 1,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,87; -14,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 45,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,03; 5,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,11; -9,67</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 7,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 10,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 4,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 3,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 8,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,3; 0,09</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 4,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 8,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 0,98</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,71%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,6%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,14%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,56; 98,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,63; 139,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,64; 60,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,41; 33,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,58; 74,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,77; 0,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,56; 42,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,26; 83,18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,52; 9,12</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,68</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,01</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 0,66</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; -1,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; -10,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; -0,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; -3,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; -12,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; -0,76</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; -3,47</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,82; -12,18</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,44%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,79%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,76%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,0; 2,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,71; -5,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,47; -35,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; -2,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,94; -10,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,16; -40,41</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; -2,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,54; -11,17</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,22; -39,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,75</t>
+          <t>-14,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,85</t>
+          <t>-16,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,21</t>
+          <t>-15,4</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,59; -5,33</t>
+          <t>-23,72; -4,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -10,43</t>
+          <t>-24,14; -8,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,0; -10,12</t>
+          <t>-21,45; -8,84</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-40,77%</t>
+          <t>-41,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-53,91%</t>
+          <t>-50,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-46,83%</t>
+          <t>-44,5%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,79; -14,54</t>
+          <t>-60,79; -11,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,71; -31,73</t>
+          <t>-67,57; -25,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-61,41; -31,14</t>
+          <t>-59,64; -27,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,27</t>
+          <t>-16,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,39</t>
+          <t>-22,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-18,99</t>
+          <t>-19,95</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,75; -10,11</t>
+          <t>-23,14; -9,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,31; -14,22</t>
+          <t>-30,58; -16,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,55; -15,06</t>
+          <t>-25,64; -15,57</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-43,41%</t>
+          <t>-42,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-51,72%</t>
+          <t>-56,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-47,94%</t>
+          <t>-50,38%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,37; -27,22</t>
+          <t>-55,08; -25,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,02; -38,99</t>
+          <t>-73,64; -44,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-56,54; -39,0</t>
+          <t>-63,29; -40,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,55</t>
+          <t>-16,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-16,21</t>
+          <t>-16,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-16,33</t>
+          <t>-16,02</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,18; -10,67</t>
+          <t>-21,9; -10,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -10,81</t>
+          <t>-20,76; -10,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,12; -12,25</t>
+          <t>-19,84; -11,93</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-42,87%</t>
+          <t>-41,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-43,61%</t>
+          <t>-43,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-43,17%</t>
+          <t>-42,36%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,99; -28,81</t>
+          <t>-52,19; -28,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,52; -32,31</t>
+          <t>-51,9; -31,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,52; -34,47</t>
+          <t>-49,63; -33,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-15,39</t>
+          <t>-19,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,82</t>
+          <t>-10,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-14,59</t>
+          <t>-15,75</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,29; -9,02</t>
+          <t>-30,53; -11,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,55; -8,3</t>
+          <t>-17,15; 1,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,94; -10,63</t>
+          <t>-24,92; -9,78</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-43,59%</t>
+          <t>-55,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,31%</t>
+          <t>-31,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-41,41%</t>
+          <t>-44,7%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,67; -28,42</t>
+          <t>-79,59; -33,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,58; -25,19</t>
+          <t>-45,66; 5,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,08; -32,11</t>
+          <t>-68,41; -29,05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>-9,53</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>-5,75</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 4,59</t>
+          <t>-6,81; 4,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -3,76</t>
+          <t>-15,15; -3,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,05; -2,23</t>
+          <t>-9,87; -1,99</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>-5,69%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-32,16%</t>
+          <t>-31,27%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-23,03%</t>
+          <t>-22,2%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 28,52</t>
+          <t>-27,24; 29,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,87; -14,7</t>
+          <t>-43,2; -13,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,11; -9,67</t>
+          <t>-34,5; -8,61</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-5,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 7,27</t>
+          <t>-3,36; 10,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,57</t>
+          <t>-1,07; 13,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,5</t>
+          <t>-4,93; 5,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 3,7</t>
+          <t>-6,92; 6,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 8,77</t>
+          <t>-4,93; 7,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 0,09</t>
+          <t>-21,68; -3,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,41</t>
+          <t>-3,17; 6,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,4</t>
+          <t>-0,89; 9,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,98</t>
+          <t>-12,51; -0,64</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-2,23%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-23,91%</t>
+          <t>-48,8%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>-31,25%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 98,66</t>
+          <t>-22,69; 108,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>7,63; 139,19</t>
+          <t>-8,32; 145,86</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 60,28</t>
+          <t>-30,23; 62,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 33,05</t>
+          <t>-28,59; 36,4</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 74,8</t>
+          <t>-20,44; 43,17</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,77; 0,67</t>
+          <t>-84,31; -15,23</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 42,31</t>
+          <t>-17,35; 42,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,26; 83,18</t>
+          <t>-4,89; 63,37</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 9,12</t>
+          <t>-63,82; -4,64</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-13,26</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-14,68</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-14,01</t>
+          <t>2,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,66</t>
+          <t>-3,77; 8,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -1,81</t>
+          <t>-0,99; 10,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -10,79</t>
+          <t>-3,61; 6,52</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -0,78</t>
+          <t>-2,99; 5,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -3,13</t>
+          <t>0,77; 12,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -12,45</t>
+          <t>-2,37; 5,57</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,76</t>
+          <t>-2,04; 5,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -3,47</t>
+          <t>1,81; 10,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -12,18</t>
+          <t>-1,28; 5,05</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-41,44%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>125,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-45,79%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>31,71%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-15,98%</t>
+          <t>108,77%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-43,76%</t>
+          <t>42,98%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-50,11; 274,37</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-21,95; 349,25</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-36,49; 273,65</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-40,49; 189,7</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>7,79; 404,38</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-26,68; 172,03</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-26,98; 143,59</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>19,36; 280,05</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 163,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-4,42</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-14,05</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-5,77</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-14,62</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-5,12</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-14,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 0,66</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-7,29; -1,81</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-18,19; -11,24</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; -0,78</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; -3,13</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-18,08; -11,47</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; -0,76</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; -3,47</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-17,02; -12,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-6,11%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-13,81%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-43,91%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-9,67%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-17,99%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-45,59%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-7,96%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-15,98%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-44,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-14,0; 2,01</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-21,71; -5,84</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-47,47; -35,0</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-58,38; -36,65</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-17,05; -2,31</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-24,94; -10,32</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-52,16; -40,41</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-54,75; -36,5</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-12,87; -2,34</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-21,54; -11,17</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-48,22; -39,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-52,5; -38,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P19C03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 3,95</t>
+          <t>-9,0; 4,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 0,15</t>
+          <t>-14,26; -0,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -4,23</t>
+          <t>-23,64; -4,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 2,69</t>
+          <t>-9,68; 3,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,64; -1,85</t>
+          <t>-15,07; -1,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,14; -8,47</t>
+          <t>-24,12; -7,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,63</t>
+          <t>-8,35; 1,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -2,77</t>
+          <t>-12,89; -2,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,45; -8,84</t>
+          <t>-21,13; -8,59</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 12,02</t>
+          <t>-23,04; 13,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,54; -0,93</t>
+          <t>-35,67; 0,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,79; -11,78</t>
+          <t>-61,32; -11,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 8,68</t>
+          <t>-27,46; 10,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,07; -5,52</t>
+          <t>-41,0; -4,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,57; -25,81</t>
+          <t>-68,13; -25,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 5,26</t>
+          <t>-22,75; 5,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,48; -8,64</t>
+          <t>-35,16; -9,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-59,64; -27,27</t>
+          <t>-57,89; -25,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -0,02</t>
+          <t>-11,32; 0,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -0,21</t>
+          <t>-11,26; 0,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,14; -9,59</t>
+          <t>-22,99; -9,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 0,75</t>
+          <t>-11,12; 0,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,75; -3,77</t>
+          <t>-14,54; -3,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,58; -16,03</t>
+          <t>-30,05; -15,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -1,62</t>
+          <t>-9,85; -1,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,71; -3,54</t>
+          <t>-11,71; -2,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-25,64; -15,57</t>
+          <t>-25,69; -15,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,12; -0,01</t>
+          <t>-26,8; 1,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,4; -0,66</t>
+          <t>-26,94; 0,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,08; -25,03</t>
+          <t>-55,16; -25,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 2,15</t>
+          <t>-26,34; 1,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,5; -9,59</t>
+          <t>-34,8; -8,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,64; -44,19</t>
+          <t>-72,6; -44,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -4,06</t>
+          <t>-23,74; -3,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,21; -9,21</t>
+          <t>-27,73; -7,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,29; -40,72</t>
+          <t>-62,62; -40,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 0,35</t>
+          <t>-10,34; 1,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 0,7</t>
+          <t>-10,8; 1,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,9; -10,25</t>
+          <t>-21,83; -10,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 4,09</t>
+          <t>-7,0; 4,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -1,15</t>
+          <t>-12,5; -1,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,76; -10,61</t>
+          <t>-20,92; -11,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 1,04</t>
+          <t>-6,96; 0,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,16; -1,58</t>
+          <t>-9,99; -2,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,84; -11,93</t>
+          <t>-19,72; -12,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,87; 0,95</t>
+          <t>-25,23; 4,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 1,88</t>
+          <t>-25,98; 3,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,19; -28,47</t>
+          <t>-52,38; -29,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 12,01</t>
+          <t>-17,29; 12,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,05; -3,06</t>
+          <t>-30,67; -5,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,9; -31,01</t>
+          <t>-52,25; -32,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 2,91</t>
+          <t>-17,63; 2,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,38; -4,46</t>
+          <t>-24,98; -6,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,63; -33,62</t>
+          <t>-49,43; -33,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 4,17</t>
+          <t>-8,57; 4,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -1,22</t>
+          <t>-14,06; -1,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,53; -11,67</t>
+          <t>-31,47; -11,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 1,15</t>
+          <t>-10,76; 1,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -0,74</t>
+          <t>-12,12; -0,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 1,27</t>
+          <t>-17,12; 2,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 1,0</t>
+          <t>-8,21; 1,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -2,73</t>
+          <t>-11,96; -2,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-24,92; -9,78</t>
+          <t>-25,62; -9,72</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 13,63</t>
+          <t>-22,22; 14,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,66; -4,05</t>
+          <t>-36,17; -4,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,59; -33,62</t>
+          <t>-82,17; -33,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 3,93</t>
+          <t>-28,38; 4,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,84; -2,49</t>
+          <t>-32,05; -0,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 5,61</t>
+          <t>-46,07; 11,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 3,4</t>
+          <t>-21,97; 3,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,66; -8,41</t>
+          <t>-30,7; -8,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,41; -29,05</t>
+          <t>-68,41; -28,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,03; 17,04</t>
+          <t>3,24; 16,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 6,79</t>
+          <t>-6,58; 6,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 4,66</t>
+          <t>-6,42; 5,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 8,23</t>
+          <t>-6,03; 9,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 0,47</t>
+          <t>-13,47; 0,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -3,53</t>
+          <t>-15,08; -4,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,16; 10,14</t>
+          <t>0,11; 10,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 1,36</t>
+          <t>-7,87; 1,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -1,99</t>
+          <t>-10,08; -1,78</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11,77; 97,78</t>
+          <t>13,9; 103,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 38,33</t>
+          <t>-27,23; 40,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 29,67</t>
+          <t>-26,84; 32,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 30,93</t>
+          <t>-17,48; 33,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 1,92</t>
+          <t>-38,32; 4,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,2; -13,83</t>
+          <t>-43,78; -16,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,51; 45,43</t>
+          <t>0,64; 45,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 5,49</t>
+          <t>-27,68; 5,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,5; -8,61</t>
+          <t>-34,72; -7,69</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 10,05</t>
+          <t>-3,59; 9,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 13,31</t>
+          <t>-0,68; 13,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 5,63</t>
+          <t>-4,81; 5,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 6,02</t>
+          <t>-7,69; 4,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 7,82</t>
+          <t>-5,56; 7,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-21,68; -3,15</t>
+          <t>-20,33; -3,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,22</t>
+          <t>-3,08; 6,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 9,19</t>
+          <t>-0,55; 8,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -0,64</t>
+          <t>-12,39; -0,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 108,42</t>
+          <t>-24,01; 98,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 145,86</t>
+          <t>-5,28; 142,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 62,61</t>
+          <t>-29,89; 69,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 36,4</t>
+          <t>-30,64; 30,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 43,17</t>
+          <t>-23,04; 46,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-84,31; -15,23</t>
+          <t>-81,75; -15,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 42,66</t>
+          <t>-16,36; 45,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 63,37</t>
+          <t>-3,07; 61,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-63,82; -4,64</t>
+          <t>-66,98; -4,0</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 8,27</t>
+          <t>-3,04; 8,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,17</t>
+          <t>-1,51; 10,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 6,52</t>
+          <t>-2,65; 6,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 5,54</t>
+          <t>-2,97; 5,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,77; 12,53</t>
+          <t>0,6; 13,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 5,57</t>
+          <t>-1,69; 5,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 5,0</t>
+          <t>-1,89; 5,34</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,58</t>
+          <t>1,39; 10,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,05</t>
+          <t>-0,64; 5,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 274,37</t>
+          <t>-40,3; 365,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 349,25</t>
+          <t>-26,28; 386,32</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 273,65</t>
+          <t>-33,01; 286,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 189,7</t>
+          <t>-43,19; 184,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>7,79; 404,38</t>
+          <t>-2,09; 383,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 172,03</t>
+          <t>-20,42; 210,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 143,59</t>
+          <t>-26,58; 146,62</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>19,36; 280,05</t>
+          <t>12,32; 258,59</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 163,52</t>
+          <t>-8,7; 162,3</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,66</t>
+          <t>-4,73; 0,59</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -1,81</t>
+          <t>-6,93; -1,73</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -11,24</t>
+          <t>-18,39; -11,29</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -0,78</t>
+          <t>-5,67; -0,84</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -3,13</t>
+          <t>-8,03; -3,15</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-18,08; -11,47</t>
+          <t>-18,2; -11,53</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,76</t>
+          <t>-4,39; -0,76</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -3,47</t>
+          <t>-7,08; -3,45</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -12,06</t>
+          <t>-16,97; -12,26</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 2,01</t>
+          <t>-14,02; 1,98</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -5,84</t>
+          <t>-21,12; -5,98</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-58,38; -36,65</t>
+          <t>-56,54; -36,05</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -2,31</t>
+          <t>-17,08; -2,93</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -10,32</t>
+          <t>-24,13; -10,36</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-54,75; -36,5</t>
+          <t>-55,51; -36,97</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -2,34</t>
+          <t>-13,33; -2,36</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -11,17</t>
+          <t>-21,32; -11,16</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-52,5; -38,45</t>
+          <t>-52,18; -38,94</t>
         </is>
       </c>
     </row>
